--- a/صيدليات دكتور مصطفي طلعت_2026-01-16_12-22.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-16_12-22.xlsx
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>0:0</t>
-  </si>
-  <si>
-    <t>RICHI PANTHENOL CREAM 50GM</t>
   </si>
   <si>
     <t xml:space="preserve">برفان القصاص </t>
@@ -844,7 +841,7 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
@@ -864,17 +861,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -882,7 +879,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -890,7 +887,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -900,67 +897,41 @@
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
-      <c r="A13" s="6">
-        <v>10</v>
-      </c>
-      <c t="s" r="B13" s="7">
-        <v>25</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c t="s" r="H13" s="8">
+      <c r="K13" s="10">
+        <v>314.36000000000001</v>
+      </c>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+    </row>
+    <row r="14" ht="17.25" customHeight="1">
+      <c t="s" r="A14" s="11">
         <v>26</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="9">
-        <v>20</v>
-      </c>
-      <c r="M13" s="9"/>
-      <c t="s" r="N13" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" ht="25.5" customHeight="1">
-      <c r="K14" s="10">
-        <v>376.36000000000001</v>
-      </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="11">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c t="s" r="F14" s="12">
         <v>27</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c t="s" r="F15" s="12">
+      <c r="G14" s="12"/>
+      <c r="H14" s="13"/>
+      <c t="s" r="I14" s="14">
         <v>28</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
-      <c t="s" r="I15" s="14">
-        <v>29</v>
-      </c>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="38">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -995,13 +966,10 @@
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:N15"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:N14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
